--- a/Com.Edu.SMS/src/test/resources/TeacherData.xlsx
+++ b/Com.Edu.SMS/src/test/resources/TeacherData.xlsx
@@ -64,9 +64,6 @@
     <t>123-987-9635</t>
   </si>
   <si>
-    <t>Madhu502@gmail.com</t>
-  </si>
-  <si>
     <t>fileToUpload</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Room1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -215,6 +209,12 @@
   </si>
   <si>
     <t>300</t>
+  </si>
+  <si>
+    <t>Kotadi</t>
+  </si>
+  <si>
+    <t>Madhu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -256,10 +256,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -579,7 +578,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -609,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,16 +631,16 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -667,31 +666,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -699,55 +698,55 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -755,26 +754,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3"/>
@@ -788,25 +787,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -826,10 +825,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -852,26 +851,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -896,59 +895,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
